--- a/analysis/analysis_table.xlsx
+++ b/analysis/analysis_table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t xml:space="preserve">timestamp</t>
   </si>
@@ -242,13 +242,61 @@
     <t xml:space="preserve">max_score</t>
   </si>
   <si>
+    <t xml:space="preserve">Lisboa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cascais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vila Nova de Gaia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sintra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aveiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Braga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Évora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coimbra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guimarães</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loulé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faro</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entroncamento</t>
   </si>
   <si>
-    <t xml:space="preserve">mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median</t>
+    <t xml:space="preserve">Ourém</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vila Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viseu</t>
   </si>
 </sst>
 </file>
@@ -820,17 +868,17 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45443.8284005599</v>
+        <v>45446.5950540245</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -842,16 +890,16 @@
         <v>77</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L2" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
@@ -863,202 +911,202 @@
         <v>20</v>
       </c>
       <c r="P2" t="n">
-        <v>178</v>
+        <v>4310</v>
       </c>
       <c r="Q2" t="n">
-        <v>78</v>
+        <v>1836</v>
       </c>
       <c r="R2" t="n">
-        <v>25</v>
+        <v>3144</v>
       </c>
       <c r="S2" t="n">
-        <v>65</v>
+        <v>3144</v>
       </c>
       <c r="T2" t="n">
-        <v>29</v>
+        <v>683</v>
       </c>
       <c r="U2" t="n">
+        <v>2445</v>
+      </c>
+      <c r="V2" t="n">
+        <v>779</v>
+      </c>
+      <c r="W2" t="n">
+        <v>334</v>
+      </c>
+      <c r="X2" t="n">
+        <v>445</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>351</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>220</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>131</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.298647582697201</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.107700822817859</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.0656494910941476</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0892926702156622</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.593197837150127</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.124433828132112</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>328.388221153846</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>285.541884659413</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>109</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>471</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1692</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.198455214723926</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.207451572194719</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>19.5828524319868</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>17.0620814442451</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>15</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>27</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>137</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>3.79141531322506</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1.82180663919942</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW2" t="n">
         <v>5</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.561280991735537</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.21276180825595</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.641</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.155661157024793</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.172324623589657</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.199</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.344107438016529</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.22991689809048</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.301</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.475</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>226.303370786517</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>296.482730008097</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>96</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>347</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1182</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.0731914893617021</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.12316107790039</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.10175</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.695</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>2.13483146067416</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1.04898133245582</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>3</v>
-      </c>
       <c r="BX2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45443.8332143089</v>
+        <v>45447.6867093265</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E3" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -1070,16 +1118,16 @@
         <v>77</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L3" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
@@ -1091,187 +1139,6343 @@
         <v>20</v>
       </c>
       <c r="P3" t="n">
-        <v>178</v>
+        <v>1976</v>
       </c>
       <c r="Q3" t="n">
+        <v>944</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1714</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1714</v>
+      </c>
+      <c r="T3" t="n">
+        <v>425</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1489</v>
+      </c>
+      <c r="V3" t="n">
+        <v>15</v>
+      </c>
+      <c r="W3" t="n">
+        <v>14</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>204</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>203</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.479803383897316</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.176374509895913</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.0428150525087515</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0660874121371989</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.527291715285881</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.146915664841455</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>215.42750929368</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>185.736841458804</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>73</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>168</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>316</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1223</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.15573875083949</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.195139248210748</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>3.97495527728086</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>2.71582689503634</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>26</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>4.18876518218624</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1.34570871395238</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45447.6929490313</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" t="n">
+        <v>200</v>
+      </c>
+      <c r="E4" t="n">
+        <v>200</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>20</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3115</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1234</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="T4" t="n">
+        <v>340</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1382</v>
+      </c>
+      <c r="V4" t="n">
+        <v>199</v>
+      </c>
+      <c r="W4" t="n">
+        <v>122</v>
+      </c>
+      <c r="X4" t="n">
+        <v>77</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>195</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>145</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.394512667660209</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.170083932804653</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0454853452558371</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.0830403169754441</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.541906110283159</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.123675988480633</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>165.444756554307</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>192.417987838217</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>206</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>1420</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.124187409551375</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.184010976400492</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.22275</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.827</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>12.5532879818594</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>11.7878016429568</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>9</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>18</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>86</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>3.30529695024077</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>1.77876060062855</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45447.6955740255</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" t="n">
+        <v>200</v>
+      </c>
+      <c r="E5" t="n">
+        <v>200</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>20</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4236</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1646</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2800</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2800</v>
+      </c>
+      <c r="T5" t="n">
+        <v>488</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1837</v>
+      </c>
+      <c r="V5" t="n">
+        <v>196</v>
+      </c>
+      <c r="W5" t="n">
+        <v>150</v>
+      </c>
+      <c r="X5" t="n">
+        <v>46</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>289</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>257</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.481294642857143</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.222085781378931</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.0366467857142857</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.0642280171099512</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.540456428571429</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.115105302588185</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>155.274836838289</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>167.562727541019</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>102</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>205</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>1438</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.10279368535656</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.165627043180969</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.815</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>9.21692307692308</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>8.66944885033045</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>12</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>71</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>3.30571293673277</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1.76219661053998</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>45447.6980877143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="n">
+        <v>200</v>
+      </c>
+      <c r="E6" t="n">
+        <v>200</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>20</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7727</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2818</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4659</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4659</v>
+      </c>
+      <c r="T6" t="n">
+        <v>666</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2591</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>277</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>277</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.307896115046147</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.157208236864411</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.0527093796952136</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.082219517484668</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.359284825069757</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.146222721828539</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>147.201550387597</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>153.479078414373</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>52</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>98</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>182</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>1292</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.047590891547665</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.11163702618686</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.689</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2.88127853881279</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>1.62959054069331</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>2.99210560372719</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>1.59805564139957</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>45447.7019063741</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="n">
+        <v>200</v>
+      </c>
+      <c r="E7" t="n">
+        <v>200</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>20</v>
+      </c>
+      <c r="P7" t="n">
+        <v>13578</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3218</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5117</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5117</v>
+      </c>
+      <c r="T7" t="n">
+        <v>625</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2925</v>
+      </c>
+      <c r="V7" t="n">
+        <v>385</v>
+      </c>
+      <c r="W7" t="n">
+        <v>305</v>
+      </c>
+      <c r="X7" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>406</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>307</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>99</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.368932382255228</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.195338980141389</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.0479722493648622</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.0920092395794287</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.547390658589017</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.14452593778092</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>159.411326994626</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>251.393015401328</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>59</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>168</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>2915</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.0577586324786325</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.127133725381805</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>9.1328320802005</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>7.9773865019008</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>12</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>72</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>2.28052732361172</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>1.65403685535119</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>45447.7039501181</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" t="n">
+        <v>200</v>
+      </c>
+      <c r="E8" t="n">
+        <v>200</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>20</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7253</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1635</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2701</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2701</v>
+      </c>
+      <c r="T8" t="n">
+        <v>367</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1514</v>
+      </c>
+      <c r="V8" t="n">
+        <v>236</v>
+      </c>
+      <c r="W8" t="n">
+        <v>147</v>
+      </c>
+      <c r="X8" t="n">
+        <v>89</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>221</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>164</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>57</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.306501295816364</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.152483610832097</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.0280466493891151</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.0668216091744141</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.463285820066642</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.127235339469686</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>165.102375102375</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>215.005219538458</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>38</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>87</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>196</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>1636</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.0649167767503303</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.131577393141461</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>10.2352132049519</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>10.3234720480397</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>14</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>86</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>2.26209844202399</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>1.65547241653641</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>45447.7057553096</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" t="n">
+        <v>200</v>
+      </c>
+      <c r="E9" t="n">
+        <v>200</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>20</v>
+      </c>
+      <c r="P9" t="n">
+        <v>8900</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1271</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1813</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1813</v>
+      </c>
+      <c r="T9" t="n">
+        <v>286</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1128</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>116</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>116</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.416238830667402</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.191195197440887</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.0892829564258136</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.129655754611346</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.47215444015444</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.157382804003495</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>93.3471741637832</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>105.753812878356</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>33</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>64</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>115</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>1113</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.0669078014184397</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.14402052504365</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.685</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>1.70910112359551</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>1.32493876355064</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45447.7078166204</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="n">
+        <v>200</v>
+      </c>
+      <c r="E10" t="n">
+        <v>200</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>20</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8482</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2147</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3495</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3495</v>
+      </c>
+      <c r="T10" t="n">
+        <v>382</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2045</v>
+      </c>
+      <c r="V10" t="n">
+        <v>142</v>
+      </c>
+      <c r="W10" t="n">
+        <v>103</v>
+      </c>
+      <c r="X10" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>154</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>129</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.382755078683834</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.193601697196145</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.0783917024320458</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.118331051577434</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.330918454935622</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.18422143428941</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.1785</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>133.326896551724</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>175.98429303429</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>39</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>71</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>140.75</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>1438</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.0692689486552567</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.14295313177974</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>6.1234684260132</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>6.46272517115785</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>68</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>2.38009903324688</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>1.60966895996973</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45447.7096526182</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" t="n">
+        <v>200</v>
+      </c>
+      <c r="E11" t="n">
+        <v>200</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>20</v>
+      </c>
+      <c r="P11" t="n">
+        <v>54651</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1003</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1580</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1580</v>
+      </c>
+      <c r="T11" t="n">
+        <v>318</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1058</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>204</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>204</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.500694936708861</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.28502727107449</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.0833727848101266</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.150297057407403</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.33675253164557</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.185902962558975</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>54.8780737704918</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>78.1135038115801</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>73</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>739</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0.0463071833648393</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0.115457869160138</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0.827</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>1.10135221679384</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0.564805062699055</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45447.7157628903</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" t="n">
+        <v>200</v>
+      </c>
+      <c r="E12" t="n">
+        <v>200</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>20</v>
+      </c>
+      <c r="P12" t="n">
+        <v>14257</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2194</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3468</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3468</v>
+      </c>
+      <c r="T12" t="n">
+        <v>500</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2042</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>215</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>215</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.371040369088812</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.203756655924827</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.0538843713956171</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.0867168003947544</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.380375432525952</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.160721257221587</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.47525</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>85.2459115687462</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>103.525801673121</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>98</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0.0652575905974535</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0.144537693303749</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>1.81868555797152</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>1.38424228198717</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45447.724489962</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" t="n">
+        <v>200</v>
+      </c>
+      <c r="E13" t="n">
+        <v>200</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>20</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4310</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1836</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1572</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2788</v>
+      </c>
+      <c r="T13" t="n">
+        <v>683</v>
+      </c>
+      <c r="U13" t="n">
+        <v>292</v>
+      </c>
+      <c r="V13" t="n">
+        <v>779</v>
+      </c>
+      <c r="W13" t="n">
+        <v>334</v>
+      </c>
+      <c r="X13" t="n">
+        <v>445</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.298647582697201</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.107700822817859</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.0656494910941476</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.0892926702156622</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.593197837150127</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.124433828132112</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>328.388221153846</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>285.541884659413</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>109</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>471</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>1692</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0.198455214723926</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0.207451572194719</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>19.5828524319868</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>17.0620814442451</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>8</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>15</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>27</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>137</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>2.8445475638051</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>1.45560486891347</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>45457.4640061938</v>
+      </c>
+      <c r="B14" t="s">
         <v>78</v>
       </c>
-      <c r="R3" t="n">
-        <v>25</v>
-      </c>
-      <c r="S3" t="n">
-        <v>65</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="C14"/>
+      <c r="D14" t="n">
+        <v>200</v>
+      </c>
+      <c r="E14" t="n">
+        <v>200</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>20</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1976</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>944</v>
+      </c>
+      <c r="R14" t="n">
+        <v>856</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1512</v>
+      </c>
+      <c r="T14" t="n">
+        <v>425</v>
+      </c>
+      <c r="U14" t="n">
+        <v>129</v>
+      </c>
+      <c r="V14" t="n">
+        <v>15</v>
+      </c>
+      <c r="W14" t="n">
+        <v>14</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.479803383897316</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.176374509895913</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.0428150525087515</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.0660874121371989</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.527291715285881</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.146915664841455</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>215.42750929368</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>185.736841458804</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>73</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>168</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>316</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>1223</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0.15573875083949</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0.195139248210748</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>3.97495527728086</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>2.71582689503634</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>26</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>2.96406882591093</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>1.16715577402085</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>45457.4653864247</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15" t="n">
+        <v>200</v>
+      </c>
+      <c r="E15" t="n">
+        <v>200</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>20</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3115</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1234</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1007</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1859</v>
+      </c>
+      <c r="T15" t="n">
+        <v>340</v>
+      </c>
+      <c r="U15" t="n">
+        <v>99</v>
+      </c>
+      <c r="V15" t="n">
+        <v>199</v>
+      </c>
+      <c r="W15" t="n">
+        <v>122</v>
+      </c>
+      <c r="X15" t="n">
+        <v>77</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.394512667660209</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.170083932804653</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.0454853452558371</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.0830403169754441</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.541906110283159</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.123675988480633</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>165.444756554307</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>192.417987838217</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>206</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>1420</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0.124187409551375</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0.184010976400492</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0.22275</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0.827</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>12.5532879818594</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>11.7878016429568</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>9</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>18</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>86</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>2.52102728731942</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>1.40731330422525</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>45457.4679984439</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16" t="n">
+        <v>200</v>
+      </c>
+      <c r="E16" t="n">
+        <v>200</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="n">
+        <v>20</v>
+      </c>
+      <c r="P16" t="n">
+        <v>8900</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1271</v>
+      </c>
+      <c r="R16" t="n">
+        <v>907</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1654</v>
+      </c>
+      <c r="T16" t="n">
+        <v>286</v>
+      </c>
+      <c r="U16" t="n">
+        <v>33</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.416238830667402</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.191195197440887</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.0892829564258136</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.129655754611346</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.47215444015444</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.157382804003495</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>93.3471741637832</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>105.753812878356</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>33</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>64</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>115</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>1113</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0.0669078014184397</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0.14402052504365</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0.685</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>1.46640449438202</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>0.986648419270932</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>45457.4705905478</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17" t="n">
+        <v>200</v>
+      </c>
+      <c r="E17" t="n">
+        <v>200</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>20</v>
+      </c>
+      <c r="P17" t="n">
+        <v>8482</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2147</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1747</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1964</v>
+      </c>
+      <c r="T17" t="n">
+        <v>382</v>
+      </c>
+      <c r="U17" t="n">
+        <v>56</v>
+      </c>
+      <c r="V17" t="n">
+        <v>142</v>
+      </c>
+      <c r="W17" t="n">
+        <v>103</v>
+      </c>
+      <c r="X17" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.382755078683834</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.193601697196145</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.0783917024320458</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.118331051577434</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.330918454935622</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.18422143428941</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.1785</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>133.326896551724</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>175.98429303429</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>39</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>71</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>140.75</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>1438</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0.0692689486552567</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0.14295313177974</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>6.1234684260132</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>6.46272517115785</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>7</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>68</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>1.75901909926904</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>1.07503177583505</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>45457.4729739561</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18" t="n">
+        <v>200</v>
+      </c>
+      <c r="E18" t="n">
+        <v>200</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>20</v>
+      </c>
+      <c r="P18" t="n">
+        <v>54651</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1003</v>
+      </c>
+      <c r="R18" t="n">
+        <v>790</v>
+      </c>
+      <c r="S18" t="n">
+        <v>718</v>
+      </c>
+      <c r="T18" t="n">
+        <v>318</v>
+      </c>
+      <c r="U18" t="n">
+        <v>20</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.500694936708861</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.28502727107449</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.0833727848101266</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.150297057407403</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.33675253164557</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.185902962558975</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>54.8780737704918</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>78.1135038115801</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>73</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>739</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0.0463071833648393</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0.115457869160138</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0.827</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>1.05213079358109</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>0.340885219970957</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>45457.4748674224</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19" t="n">
+        <v>200</v>
+      </c>
+      <c r="E19" t="n">
+        <v>200</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>20</v>
+      </c>
+      <c r="P19" t="n">
+        <v>14257</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2194</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1734</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2482</v>
+      </c>
+      <c r="T19" t="n">
+        <v>500</v>
+      </c>
+      <c r="U19" t="n">
+        <v>62</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.371040369088812</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.203756655924827</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.0538843713956171</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.0867168003947544</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.380375432525952</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.160721257221587</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.47525</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>85.2459115687462</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>103.525801673121</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>98</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0.0652575905974535</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0.144537693303749</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>1.48902293610156</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>0.957739608554017</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>45457.4814395164</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" t="n">
+        <v>200</v>
+      </c>
+      <c r="E20" t="n">
+        <v>200</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>20</v>
+      </c>
+      <c r="P20" t="n">
+        <v>11195</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2344</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1864</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3185</v>
+      </c>
+      <c r="T20" t="n">
+        <v>766</v>
+      </c>
+      <c r="U20" t="n">
+        <v>17</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.380192060085837</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.200017908029071</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.079849517167382</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.120038117301746</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.600357296137339</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.131650809442722</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.693</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>71.8950984883188</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>72.6131626641903</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>87</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>845</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0.0315177469135802</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0.0937496752777435</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>1.73032603841</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>1.13131298263297</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>45457.4841373064</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21" t="n">
+        <v>200</v>
+      </c>
+      <c r="E21" t="n">
+        <v>200</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" t="n">
+        <v>20</v>
+      </c>
+      <c r="P21" t="n">
+        <v>30941</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2431</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2037</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1566</v>
+      </c>
+      <c r="T21" t="n">
+        <v>434</v>
+      </c>
+      <c r="U21" t="n">
+        <v>15</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.457570306748466</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.285659646484468</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.0431246625766871</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.0823582292562057</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.276421840490798</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.122252589320356</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>42.1275480489225</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>75.9666726513434</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>43</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>742</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0.0406301633045149</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0.10610772006978</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>1.20952781099512</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>0.631499974059532</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>45457.4857088127</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>200</v>
+      </c>
+      <c r="E22" t="n">
+        <v>200</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="n">
+        <v>20</v>
+      </c>
+      <c r="P22" t="n">
+        <v>8329</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>953</v>
+      </c>
+      <c r="R22" t="n">
+        <v>751</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1279</v>
+      </c>
+      <c r="T22" t="n">
+        <v>183</v>
+      </c>
+      <c r="U22" t="n">
+        <v>28</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.504361758827448</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.279192689212972</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.0803097934710193</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.131896062478595</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.520323117921386</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.172415618565156</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>99.5905743740795</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>147.459899952215</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>45</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>108</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>1105</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0.0686372315035799</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0.144211818683495</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0.03975</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>1.38347940929283</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>0.916623007871241</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>45457.4882007518</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>200</v>
+      </c>
+      <c r="E23" t="n">
+        <v>200</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" t="n">
+        <v>20</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4236</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1646</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1400</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2642</v>
+      </c>
+      <c r="T23" t="n">
+        <v>488</v>
+      </c>
+      <c r="U23" t="n">
+        <v>81</v>
+      </c>
+      <c r="V23" t="n">
+        <v>196</v>
+      </c>
+      <c r="W23" t="n">
+        <v>150</v>
+      </c>
+      <c r="X23" t="n">
+        <v>46</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.481294642857143</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.222085781378931</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.0366467857142857</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.0642280171099512</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0.540456428571429</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.115105302588185</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>155.274836838289</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>167.562727541019</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>102</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>205</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>1438</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0.10279368535656</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0.165627043180969</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0.815</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>9.21692307692308</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>8.66944885033045</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>12</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>71</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>2.52337110481586</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>1.34600605234348</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>45457.4893280251</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>200</v>
+      </c>
+      <c r="E24" t="n">
+        <v>200</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K24" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" t="n">
+        <v>20</v>
+      </c>
+      <c r="P24" t="n">
+        <v>7727</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2818</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2329</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3415</v>
+      </c>
+      <c r="T24" t="n">
+        <v>666</v>
+      </c>
+      <c r="U24" t="n">
+        <v>30</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.307896115046147</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.157208236864411</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.0527093796952136</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.082219517484668</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0.359284825069757</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0.146222721828539</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>147.201550387597</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>153.479078414373</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>52</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>98</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>182</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>1292</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0.047590891547665</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0.11163702618686</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0.689</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>2.88127853881279</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>1.62959054069331</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>10</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>2.19813640481429</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>1.18710678404537</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>45457.490888758</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>200</v>
+      </c>
+      <c r="E25" t="n">
+        <v>200</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K25" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" t="n">
+        <v>20</v>
+      </c>
+      <c r="P25" t="n">
+        <v>13578</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3218</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2559</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4569</v>
+      </c>
+      <c r="T25" t="n">
+        <v>625</v>
+      </c>
+      <c r="U25" t="n">
+        <v>55</v>
+      </c>
+      <c r="V25" t="n">
+        <v>385</v>
+      </c>
+      <c r="W25" t="n">
+        <v>305</v>
+      </c>
+      <c r="X25" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.368932382255228</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.195338980141389</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.0479722493648622</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.0920092395794287</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.547390658589017</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.14452593778092</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>159.411326994626</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>251.393015401328</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>59</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>168</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>2915</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0.0577586324786325</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0.127133725381805</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>9.1328320802005</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>7.9773865019008</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>12</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>72</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>1.8404035940492</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>1.24383001337823</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>45457.5022400063</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>200</v>
+      </c>
+      <c r="E26" t="n">
+        <v>200</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" t="n">
+        <v>20</v>
+      </c>
+      <c r="P26" t="n">
+        <v>7253</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1635</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1351</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2628</v>
+      </c>
+      <c r="T26" t="n">
+        <v>367</v>
+      </c>
+      <c r="U26" t="n">
         <v>29</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V26" t="n">
+        <v>236</v>
+      </c>
+      <c r="W26" t="n">
+        <v>147</v>
+      </c>
+      <c r="X26" t="n">
+        <v>89</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.306501295816364</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.152483610832097</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.0280466493891151</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.0668216091744141</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.463285820066642</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.127235339469686</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>165.102375102375</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>215.005219538458</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>38</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>87</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>196</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>1636</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0.0649167767503303</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0.131577393141461</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>10.2352132049519</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>10.3234720480397</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>14</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>86</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>1.86116089893837</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>1.2526413915276</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>45457.5038184307</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>200</v>
+      </c>
+      <c r="E27" t="n">
+        <v>200</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K27" t="s">
+        <v>77</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10</v>
+      </c>
+      <c r="O27" t="n">
+        <v>20</v>
+      </c>
+      <c r="P27" t="n">
+        <v>647</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>202</v>
+      </c>
+      <c r="R27" t="n">
+        <v>145</v>
+      </c>
+      <c r="S27" t="n">
+        <v>122</v>
+      </c>
+      <c r="T27" t="n">
+        <v>64</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.579835051546392</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.223544025460035</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.101305841924399</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.130360875504524</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.1335</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.283828178694158</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.212347888023523</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.1205</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.3915</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>117.783625730994</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>116.829463300197</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>28</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>86</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>162</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>617</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0.0502010309278351</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0.100252870949648</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>0.0585</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR27" t="n">
+        <v>1.82534775888717</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>1.09690268748487</v>
+      </c>
+      <c r="BT27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX27" t="n">
         <v>5</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.561280991735537</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.21276180825595</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>45457.5076392931</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>200</v>
+      </c>
+      <c r="E28" t="n">
+        <v>200</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF3" t="n">
-        <v>0.641</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.155661157024793</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.172324623589657</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.199</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.344107438016529</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.22991689809048</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0.301</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0.475</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>226.303370786517</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>296.482730008097</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="n">
+        <v>10</v>
+      </c>
+      <c r="O28" t="n">
+        <v>20</v>
+      </c>
+      <c r="P28" t="n">
+        <v>18114</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1999</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1469</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1507</v>
+      </c>
+      <c r="T28" t="n">
+        <v>490</v>
+      </c>
+      <c r="U28" t="n">
+        <v>15</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.393944841675179</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.20778644181801</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.0666969696969697</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.110387298585675</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.295460674157303</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.20392413047606</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>27.3147239263804</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>43.0255648491303</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA28" t="n">
         <v>17</v>
       </c>
-      <c r="BA3" t="n">
-        <v>96</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>347</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>1182</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0.0731914893617021</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0.12316107790039</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0.10175</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0.695</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>2.13483146067416</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>1.04898133245582</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW3" t="n">
+      <c r="BB28" t="n">
+        <v>31</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>717</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0.0204350250976018</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0.0844439026876979</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR28" t="n">
+        <v>1.30252843104781</v>
+      </c>
+      <c r="BS28" t="n">
+        <v>0.769173088443385</v>
+      </c>
+      <c r="BT28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>45457.5100340291</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>200</v>
+      </c>
+      <c r="E29" t="n">
+        <v>200</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K29" t="s">
+        <v>77</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10</v>
+      </c>
+      <c r="O29" t="n">
+        <v>20</v>
+      </c>
+      <c r="P29" t="n">
+        <v>17277</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1733</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1574</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1716</v>
+      </c>
+      <c r="T29" t="n">
+        <v>305</v>
+      </c>
+      <c r="U29" t="n">
+        <v>55</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.379496505717916</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.243251850251215</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.0564081956797967</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0.0980931161879087</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0.307655654383736</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.13473753125613</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>45.2703196347032</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>63.1421018999801</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>27</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>519</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0.0651937046004843</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0.14721203144244</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR29" t="n">
+        <v>1.31157029576894</v>
+      </c>
+      <c r="BS29" t="n">
+        <v>0.775202365033566</v>
+      </c>
+      <c r="BT29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>45457.5156738396</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>200</v>
+      </c>
+      <c r="E30" t="n">
+        <v>200</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K30" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="n">
+        <v>10</v>
+      </c>
+      <c r="O30" t="n">
+        <v>20</v>
+      </c>
+      <c r="P30" t="n">
+        <v>22591</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2361</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1892</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3459</v>
+      </c>
+      <c r="T30" t="n">
+        <v>547</v>
+      </c>
+      <c r="U30" t="n">
+        <v>37</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>3</v>
       </c>
-      <c r="BX3" t="n">
-        <v>5</v>
+      <c r="Z30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.361457980972516</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.20769583137702</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.0489077695560254</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.0840267551948419</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.410926797040169</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.146058102353909</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.3725</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>52.0936682365254</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>76.6568959934022</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>30</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>58</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>917</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0.0357559765448805</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>0.110799089208188</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR30" t="n">
+        <v>1.36722588641494</v>
+      </c>
+      <c r="BS30" t="n">
+        <v>0.873380219494585</v>
+      </c>
+      <c r="BT30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX30" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
